--- a/stroopdata_analysis.xlsx
+++ b/stroopdata_analysis.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shenzuoxin\Desktop\机器学习——入门\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6E2C8C70-5A74-417C-BD6B-215C288B134E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Both" sheetId="3" r:id="rId1"/>
@@ -17,12 +18,9 @@
     <sheet name="Incongruent" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.0" hidden="1">Both!$C$2:$C$25</definedName>
-    <definedName name="_xlchart.1" hidden="1">Both!$C$2:$C$25</definedName>
-    <definedName name="_xlchart.2" hidden="1">Both!$C$2:$C$25</definedName>
-    <definedName name="_xlchart.3" hidden="1">Congruent!$A$2:$A$25</definedName>
-    <definedName name="_xlchart.4" hidden="1">Congruent!$A$2:$A$25</definedName>
-    <definedName name="_xlchart.5" hidden="1">Incongruent!$A$2:$A$25</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Both!$C$2:$C$25</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Congruent!$A$2:$A$25</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Incongruent!$A$2:$A$25</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -105,7 +103,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -180,12 +178,12 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.0</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -234,12 +232,12 @@
 </cx:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.3</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -301,12 +299,12 @@
 </cx:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.5</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1839,10 +1837,16 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" Requires="cx">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="3" name="图表 2"/>
+            <xdr:cNvPr id="3" name="图表 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -1851,7 +1855,7 @@
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
             </a:graphicData>
           </a:graphic>
         </xdr:graphicFrame>
@@ -1865,6 +1869,10 @@
             </xdr:cNvSpPr>
           </xdr:nvSpPr>
           <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7229474" y="1676400"/>
+              <a:ext cx="5114925" cy="2743200"/>
+            </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
@@ -1912,10 +1920,16 @@
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" Requires="cx">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="3" name="图表 2"/>
+            <xdr:cNvPr id="3" name="图表 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -1924,7 +1938,7 @@
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
             </a:graphicData>
           </a:graphic>
         </xdr:graphicFrame>
@@ -1938,6 +1952,10 @@
             </xdr:cNvSpPr>
           </xdr:nvSpPr>
           <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7081837" y="2305050"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
@@ -1985,10 +2003,16 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" Requires="cx">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="2" name="图表 1"/>
+            <xdr:cNvPr id="2" name="图表 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -1997,7 +2021,7 @@
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
             </a:graphicData>
           </a:graphic>
         </xdr:graphicFrame>
@@ -2011,6 +2035,10 @@
             </xdr:cNvSpPr>
           </xdr:nvSpPr>
           <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6729412" y="1981200"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
@@ -2299,11 +2327,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2625,16 +2653,16 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28">
-        <f>AVERAGE(A1:A24)</f>
-        <v>13.966217391304349</v>
+        <f>AVERAGE(A2:A25)</f>
+        <v>14.051125000000001</v>
       </c>
       <c r="B28">
-        <f>AVERAGE(B1:B24)</f>
-        <v>22.053260869565218</v>
+        <f>AVERAGE(B2:B25)</f>
+        <v>22.015916666666669</v>
       </c>
       <c r="C28">
-        <f>AVERAGE(C1:C24)</f>
-        <v>-8.0870434782608669</v>
+        <f>AVERAGE(C2:C25)</f>
+        <v>-7.964791666666664</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
@@ -2698,7 +2726,7 @@
     <row r="40" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C40">
         <f>(A28-B28)/C32</f>
-        <v>-8.143817000872307</v>
+        <v>-8.020706944109957</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.15">
@@ -2720,7 +2748,7 @@
     <row r="44" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C44">
         <f>C28-C42</f>
-        <v>-10.141619723617254</v>
+        <v>-10.019367912023052</v>
       </c>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.15">
@@ -2731,22 +2759,23 @@
     <row r="46" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C46">
         <f>C28+C42</f>
-        <v>-6.0324672329044802</v>
+        <v>-5.9102154213102764</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="100" verticalDpi="100" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3141,11 +3170,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
